--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H2">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I2">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J2">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>73.60155528401989</v>
+        <v>59.62013230809134</v>
       </c>
       <c r="R2">
-        <v>662.4139975561791</v>
+        <v>536.581190772822</v>
       </c>
       <c r="S2">
-        <v>0.003004958249887104</v>
+        <v>0.00358597939519466</v>
       </c>
       <c r="T2">
-        <v>0.003004958249887104</v>
+        <v>0.003585979395194659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H3">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I3">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J3">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>1991.866700844396</v>
+        <v>1725.789537380366</v>
       </c>
       <c r="R3">
-        <v>17926.80030759956</v>
+        <v>15532.10583642329</v>
       </c>
       <c r="S3">
-        <v>0.0813226874388797</v>
+        <v>0.1038012745343845</v>
       </c>
       <c r="T3">
-        <v>0.08132268743887971</v>
+        <v>0.1038012745343845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H4">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I4">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J4">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>2718.648893174993</v>
+        <v>1204.499730287356</v>
       </c>
       <c r="R4">
-        <v>24467.84003857493</v>
+        <v>10840.4975725862</v>
       </c>
       <c r="S4">
-        <v>0.1109952960717714</v>
+        <v>0.07244719270342492</v>
       </c>
       <c r="T4">
-        <v>0.1109952960717714</v>
+        <v>0.07244719270342491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H5">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I5">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J5">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>190.5360824451383</v>
+        <v>183.6488758916529</v>
       </c>
       <c r="R5">
-        <v>1714.824742006244</v>
+        <v>1652.839883024876</v>
       </c>
       <c r="S5">
-        <v>0.007779087964041954</v>
+        <v>0.01104595141612512</v>
       </c>
       <c r="T5">
-        <v>0.007779087964041955</v>
+        <v>0.01104595141612512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.91244366666667</v>
+        <v>9.454739666666667</v>
       </c>
       <c r="H6">
-        <v>32.737331</v>
+        <v>28.364219</v>
       </c>
       <c r="I6">
-        <v>0.2863847678890978</v>
+        <v>0.2644234075555581</v>
       </c>
       <c r="J6">
-        <v>0.2863847678890978</v>
+        <v>0.264423407555558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>2039.874949161304</v>
+        <v>1222.718670102815</v>
       </c>
       <c r="R6">
-        <v>18358.87454245173</v>
+        <v>11004.46803092533</v>
       </c>
       <c r="S6">
-        <v>0.0832827381645176</v>
+        <v>0.07354300950642891</v>
       </c>
       <c r="T6">
-        <v>0.0832827381645176</v>
+        <v>0.07354300950642888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>51.481286</v>
       </c>
       <c r="I7">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J7">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>115.7425667236415</v>
+        <v>108.2110204659853</v>
       </c>
       <c r="R7">
-        <v>1041.683100512774</v>
+        <v>973.899184193868</v>
       </c>
       <c r="S7">
-        <v>0.004725465099170651</v>
+        <v>0.006508581492553111</v>
       </c>
       <c r="T7">
-        <v>0.004725465099170652</v>
+        <v>0.006508581492553109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>51.481286</v>
       </c>
       <c r="I8">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J8">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>3132.321914087827</v>
@@ -948,10 +948,10 @@
         <v>28190.89722679044</v>
       </c>
       <c r="S8">
-        <v>0.1278844793526257</v>
+        <v>0.1884001495500076</v>
       </c>
       <c r="T8">
-        <v>0.1278844793526257</v>
+        <v>0.1884001495500075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>51.481286</v>
       </c>
       <c r="I9">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J9">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>4275.227604935943</v>
+        <v>2186.176714467133</v>
       </c>
       <c r="R9">
-        <v>38477.0484444235</v>
+        <v>19675.59043020419</v>
       </c>
       <c r="S9">
-        <v>0.1745463178328599</v>
+        <v>0.1314922384241262</v>
       </c>
       <c r="T9">
-        <v>0.17454631783286</v>
+        <v>0.1314922384241262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>51.481286</v>
       </c>
       <c r="I10">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J10">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>299.6286579891849</v>
+        <v>333.3241893019048</v>
       </c>
       <c r="R10">
-        <v>2696.657921902664</v>
+        <v>2999.917703717144</v>
       </c>
       <c r="S10">
-        <v>0.01223305138393846</v>
+        <v>0.02004849081145659</v>
       </c>
       <c r="T10">
-        <v>0.01223305138393846</v>
+        <v>0.02004849081145658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>51.481286</v>
       </c>
       <c r="I11">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281186</v>
       </c>
       <c r="J11">
-        <v>0.4503560825328813</v>
+        <v>0.4799306150281185</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>3207.817572605675</v>
+        <v>2219.244237012224</v>
       </c>
       <c r="R11">
-        <v>28870.35815345107</v>
+        <v>19973.19813311002</v>
       </c>
       <c r="S11">
-        <v>0.1309667688642866</v>
+        <v>0.1334811547499752</v>
       </c>
       <c r="T11">
-        <v>0.1309667688642866</v>
+        <v>0.1334811547499751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.33904</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H12">
-        <v>13.01712</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I12">
-        <v>0.1138732076168498</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J12">
-        <v>0.1138732076168497</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>29.26568073978666</v>
+        <v>17.64662836987867</v>
       </c>
       <c r="R12">
-        <v>263.3911266580799</v>
+        <v>158.819655328908</v>
       </c>
       <c r="S12">
-        <v>0.001194840902997572</v>
+        <v>0.001061393916438094</v>
       </c>
       <c r="T12">
-        <v>0.001194840902997572</v>
+        <v>0.001061393916438094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.33904</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H13">
-        <v>13.01712</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I13">
-        <v>0.1138732076168498</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J13">
-        <v>0.1138732076168497</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>792.0122709116267</v>
+        <v>510.8067599280224</v>
       </c>
       <c r="R13">
-        <v>7128.11043820464</v>
+        <v>4597.260839352201</v>
       </c>
       <c r="S13">
-        <v>0.03233578146961307</v>
+        <v>0.03072355671004506</v>
       </c>
       <c r="T13">
-        <v>0.03233578146961307</v>
+        <v>0.03072355671004505</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.33904</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H14">
-        <v>13.01712</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I14">
-        <v>0.1138732076168498</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J14">
-        <v>0.1138732076168497</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>1080.997680608907</v>
+        <v>356.5131154382793</v>
       </c>
       <c r="R14">
-        <v>9728.979125480158</v>
+        <v>3208.618038944514</v>
       </c>
       <c r="S14">
-        <v>0.04413429697130095</v>
+        <v>0.02144323799001064</v>
       </c>
       <c r="T14">
-        <v>0.04413429697130095</v>
+        <v>0.02144323799001064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.33904</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H15">
-        <v>13.01712</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I15">
-        <v>0.1138732076168498</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J15">
-        <v>0.1138732076168497</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>75.76155336298667</v>
+        <v>54.35720012594044</v>
       </c>
       <c r="R15">
-        <v>681.8539802668801</v>
+        <v>489.214801133464</v>
       </c>
       <c r="S15">
-        <v>0.003093145300039572</v>
+        <v>0.003269429169073497</v>
       </c>
       <c r="T15">
-        <v>0.003093145300039572</v>
+        <v>0.003269429169073496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.33904</v>
+        <v>2.798455333333333</v>
       </c>
       <c r="H16">
-        <v>13.01712</v>
+        <v>8.395365999999999</v>
       </c>
       <c r="I16">
-        <v>0.1138732076168498</v>
+        <v>0.07826520044130514</v>
       </c>
       <c r="J16">
-        <v>0.1138732076168497</v>
+        <v>0.07826520044130512</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>811.1014608437868</v>
+        <v>361.9056371884022</v>
       </c>
       <c r="R16">
-        <v>7299.913147594079</v>
+        <v>3257.15073469562</v>
       </c>
       <c r="S16">
-        <v>0.03311514297289859</v>
+        <v>0.02176758265573785</v>
       </c>
       <c r="T16">
-        <v>0.03311514297289859</v>
+        <v>0.02176758265573784</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.799827666666667</v>
+        <v>1.753969666666667</v>
       </c>
       <c r="H17">
-        <v>5.399483</v>
+        <v>5.261909</v>
       </c>
       <c r="I17">
-        <v>0.0472344457670092</v>
+        <v>0.04905377116243741</v>
       </c>
       <c r="J17">
-        <v>0.0472344457670092</v>
+        <v>0.0490537711624374</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>12.13936305710522</v>
+        <v>11.06026260667133</v>
       </c>
       <c r="R17">
-        <v>109.254267513947</v>
+        <v>99.54236346004201</v>
       </c>
       <c r="S17">
-        <v>0.0004956183198311177</v>
+        <v>0.0006652429687342824</v>
       </c>
       <c r="T17">
-        <v>0.0004956183198311178</v>
+        <v>0.0006652429687342822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.799827666666667</v>
+        <v>1.753969666666667</v>
       </c>
       <c r="H18">
-        <v>5.399483</v>
+        <v>5.261909</v>
       </c>
       <c r="I18">
-        <v>0.0472344457670092</v>
+        <v>0.04905377116243741</v>
       </c>
       <c r="J18">
-        <v>0.0472344457670092</v>
+        <v>0.0490537711624374</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>328.5255719067446</v>
+        <v>320.1550340183026</v>
       </c>
       <c r="R18">
-        <v>2956.730147160701</v>
+        <v>2881.395306164723</v>
       </c>
       <c r="S18">
-        <v>0.01341283650583929</v>
+        <v>0.01925640401676312</v>
       </c>
       <c r="T18">
-        <v>0.0134128365058393</v>
+        <v>0.01925640401676311</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.799827666666667</v>
+        <v>1.753969666666667</v>
       </c>
       <c r="H19">
-        <v>5.399483</v>
+        <v>5.261909</v>
       </c>
       <c r="I19">
-        <v>0.0472344457670092</v>
+        <v>0.04905377116243741</v>
       </c>
       <c r="J19">
-        <v>0.0472344457670092</v>
+        <v>0.0490537711624374</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>448.3963118944299</v>
+        <v>223.4494089647457</v>
       </c>
       <c r="R19">
-        <v>4035.566807049869</v>
+        <v>2011.044680682711</v>
       </c>
       <c r="S19">
-        <v>0.01830684408021828</v>
+        <v>0.01343983895029459</v>
       </c>
       <c r="T19">
-        <v>0.01830684408021828</v>
+        <v>0.01343983895029459</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.799827666666667</v>
+        <v>1.753969666666667</v>
       </c>
       <c r="H20">
-        <v>5.399483</v>
+        <v>5.261909</v>
       </c>
       <c r="I20">
-        <v>0.0472344457670092</v>
+        <v>0.04905377116243741</v>
       </c>
       <c r="J20">
-        <v>0.0472344457670092</v>
+        <v>0.0490537711624374</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>31.42578538394356</v>
+        <v>34.06910914395956</v>
       </c>
       <c r="R20">
-        <v>282.832068455492</v>
+        <v>306.621982295636</v>
       </c>
       <c r="S20">
-        <v>0.001283032303926949</v>
+        <v>0.00204915887760109</v>
       </c>
       <c r="T20">
-        <v>0.001283032303926949</v>
+        <v>0.00204915887760109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.799827666666667</v>
+        <v>1.753969666666667</v>
       </c>
       <c r="H21">
-        <v>5.399483</v>
+        <v>5.261909</v>
       </c>
       <c r="I21">
-        <v>0.0472344457670092</v>
+        <v>0.04905377116243741</v>
       </c>
       <c r="J21">
-        <v>0.0472344457670092</v>
+        <v>0.0490537711624374</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>336.4437409427886</v>
+        <v>226.8292447848478</v>
       </c>
       <c r="R21">
-        <v>3027.993668485097</v>
+        <v>2041.46320306363</v>
       </c>
       <c r="S21">
-        <v>0.01373611455719356</v>
+        <v>0.01364312634904433</v>
       </c>
       <c r="T21">
-        <v>0.01373611455719356</v>
+        <v>0.01364312634904433</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.892394333333333</v>
+        <v>4.588468333333334</v>
       </c>
       <c r="H22">
-        <v>11.677183</v>
+        <v>13.765405</v>
       </c>
       <c r="I22">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="J22">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>26.25317348369411</v>
+        <v>28.93417468587667</v>
       </c>
       <c r="R22">
-        <v>236.278561353247</v>
+        <v>260.40757217289</v>
       </c>
       <c r="S22">
-        <v>0.001071848141538827</v>
+        <v>0.001740307346255843</v>
       </c>
       <c r="T22">
-        <v>0.001071848141538827</v>
+        <v>0.001740307346255842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.892394333333333</v>
+        <v>4.588468333333334</v>
       </c>
       <c r="H23">
-        <v>11.677183</v>
+        <v>13.765405</v>
       </c>
       <c r="I23">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="J23">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>710.4852859680668</v>
+        <v>837.5408442165597</v>
       </c>
       <c r="R23">
-        <v>6394.367573712601</v>
+        <v>7537.867597949036</v>
       </c>
       <c r="S23">
-        <v>0.02900724873617826</v>
+        <v>0.05037567166866078</v>
       </c>
       <c r="T23">
-        <v>0.02900724873617826</v>
+        <v>0.05037567166866076</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.892394333333333</v>
+        <v>4.588468333333334</v>
       </c>
       <c r="H24">
-        <v>11.677183</v>
+        <v>13.765405</v>
       </c>
       <c r="I24">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="J24">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>969.7235439978854</v>
+        <v>584.5543150613885</v>
       </c>
       <c r="R24">
-        <v>8727.511895980968</v>
+        <v>5260.988835552495</v>
       </c>
       <c r="S24">
-        <v>0.0395912661410686</v>
+        <v>0.03515925993505018</v>
       </c>
       <c r="T24">
-        <v>0.0395912661410686</v>
+        <v>0.03515925993505017</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.892394333333333</v>
+        <v>4.588468333333334</v>
       </c>
       <c r="H25">
-        <v>11.677183</v>
+        <v>13.765405</v>
       </c>
       <c r="I25">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="J25">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>67.96292290336578</v>
+        <v>89.12641502462445</v>
       </c>
       <c r="R25">
-        <v>611.666306130292</v>
+        <v>802.1377352216201</v>
       </c>
       <c r="S25">
-        <v>0.002774747694893494</v>
+        <v>0.005360697393194076</v>
       </c>
       <c r="T25">
-        <v>0.002774747694893494</v>
+        <v>0.005360697393194074</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.892394333333333</v>
+        <v>4.588468333333334</v>
       </c>
       <c r="H26">
-        <v>11.677183</v>
+        <v>13.765405</v>
       </c>
       <c r="I26">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="J26">
-        <v>0.1021514961941619</v>
+        <v>0.1283270058125809</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>727.6095011677108</v>
+        <v>593.3961268253723</v>
       </c>
       <c r="R26">
-        <v>6548.485510509397</v>
+        <v>5340.565141428351</v>
       </c>
       <c r="S26">
-        <v>0.0297063854804827</v>
+        <v>0.03569106946942006</v>
       </c>
       <c r="T26">
-        <v>0.02970638548048269</v>
+        <v>0.03569106946942004</v>
       </c>
     </row>
   </sheetData>
